--- a/pkmn_deck_exel.xlsx
+++ b/pkmn_deck_exel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Hello, how you doing, this is deck lists from Moon Banana's, hope you enjoy! https://kzooy.github.io/</t>
   </si>
@@ -53,9 +53,6 @@
     <t>4x Bill</t>
   </si>
   <si>
-    <t>4x plusPower</t>
-  </si>
-  <si>
     <t>4x energy removal</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>2x lass</t>
   </si>
   <si>
-    <t>1x switch</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
@@ -96,6 +90,78 @@
   </si>
   <si>
     <t>2x colorless energy</t>
+  </si>
+  <si>
+    <t>2x plusPower</t>
+  </si>
+  <si>
+    <t>3x switch</t>
+  </si>
+  <si>
+    <t>rain dance, fossil</t>
+  </si>
+  <si>
+    <t>retro decks:</t>
+  </si>
+  <si>
+    <t>pokemon:</t>
+  </si>
+  <si>
+    <t>1x wartortle</t>
+  </si>
+  <si>
+    <t>3x blastoise</t>
+  </si>
+  <si>
+    <t>4x articuno</t>
+  </si>
+  <si>
+    <t>4x squrtle</t>
+  </si>
+  <si>
+    <t>trainers:</t>
+  </si>
+  <si>
+    <t>4x prof oak</t>
+  </si>
+  <si>
+    <t>4x bill</t>
+  </si>
+  <si>
+    <t>4x computer search</t>
+  </si>
+  <si>
+    <t>4x pokemon breeder</t>
+  </si>
+  <si>
+    <t>4x energy retrieval</t>
+  </si>
+  <si>
+    <t>2x switch</t>
+  </si>
+  <si>
+    <t>2x super energy removal</t>
+  </si>
+  <si>
+    <t>2x maintenance</t>
+  </si>
+  <si>
+    <t>2x super potion</t>
+  </si>
+  <si>
+    <t>1x plus power</t>
+  </si>
+  <si>
+    <t>1x gust of wind</t>
+  </si>
+  <si>
+    <t>1x lass</t>
+  </si>
+  <si>
+    <t>energy:</t>
+  </si>
+  <si>
+    <t>14: water energy</t>
   </si>
 </sst>
 </file>
@@ -413,16 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="93" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -440,10 +506,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -451,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -473,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,47 +553,141 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/pkmn_deck_exel.xlsx
+++ b/pkmn_deck_exel.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
-  <si>
-    <t>Hello, how you doing, this is deck lists from Moon Banana's, hope you enjoy! https://kzooy.github.io/</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>haymaker, deck list: base set, jungle and fossil</t>
   </si>
@@ -162,6 +159,75 @@
   </si>
   <si>
     <t>14: water energy</t>
+  </si>
+  <si>
+    <t>nurse stall</t>
+  </si>
+  <si>
+    <t>chansey x2</t>
+  </si>
+  <si>
+    <t>abra x2</t>
+  </si>
+  <si>
+    <t>kadabra x2</t>
+  </si>
+  <si>
+    <t>hitmonchan x2</t>
+  </si>
+  <si>
+    <t>electabuzz x2</t>
+  </si>
+  <si>
+    <t>syther x2</t>
+  </si>
+  <si>
+    <t>alaxazam x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello, how you doing, this is deck lists from Moon Banana's, </t>
+  </si>
+  <si>
+    <t>hope you enjoy! https://kzooy.github.io/ :</t>
+  </si>
+  <si>
+    <t>switch x4</t>
+  </si>
+  <si>
+    <t>bill x4</t>
+  </si>
+  <si>
+    <t>item finder x4</t>
+  </si>
+  <si>
+    <t>4x computer search x4</t>
+  </si>
+  <si>
+    <t>scoop up x4</t>
+  </si>
+  <si>
+    <t>pokemon center x4</t>
+  </si>
+  <si>
+    <t>2x colorless x2</t>
+  </si>
+  <si>
+    <t>electric energy x6</t>
+  </si>
+  <si>
+    <t>fighting energy x6</t>
+  </si>
+  <si>
+    <t>gust of wind x4</t>
+  </si>
+  <si>
+    <t>4x lass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trainers: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">energy: </t>
   </si>
 </sst>
 </file>
@@ -479,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,199 +561,286 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>43</v>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
